--- a/amisbook文档/文档/核注清单带历史数据需求优化文档(4).xlsx
+++ b/amisbook文档/文档/核注清单带历史数据需求优化文档(4).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="货物申报" sheetId="2" state="hidden" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="128">
   <si>
     <t>字段名称</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>用途</t>
+  </si>
+  <si>
+    <t>识别（境外收发货人+进出口+所属模块+料号带最新的历史数据</t>
   </si>
   <si>
     <t>字段规则</t>
@@ -363,7 +366,13 @@
 </t>
   </si>
   <si>
+    <t>识别--账册数据（料号+账册）--历史数据（境外收发货人+进出口+所属模块+料号带最新的历史数据+供应商）</t>
+  </si>
+  <si>
     <t>商品料号</t>
+  </si>
+  <si>
+    <t>识别的备案序号+账册带出【料号】---识别</t>
   </si>
   <si>
     <t xml:space="preserve">商品编码 </t>
@@ -445,8 +454,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -466,8 +475,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +521,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -489,7 +529,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,82 +538,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -594,6 +558,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -601,14 +618,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -637,25 +646,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,31 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,121 +826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,18 +842,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,33 +869,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -910,6 +886,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,137 +957,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,6 +1123,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1554,12 +1566,12 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:4">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -1604,7 +1616,7 @@
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:4">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -1646,7 +1658,7 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
@@ -1674,7 +1686,7 @@
       </c>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:4">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -1828,7 +1840,7 @@
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:4">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B22" t="s">
@@ -1870,38 +1882,38 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-    </row>
-    <row r="26" s="14" customFormat="1" spans="1:4">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" s="15" customFormat="1" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" s="14" customFormat="1" spans="1:4">
+    <row r="27" s="15" customFormat="1" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="15" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1915,7 +1927,7 @@
       <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1929,7 +1941,7 @@
       <c r="C29" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1943,12 +1955,12 @@
       <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1" spans="1:4">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B31" t="s">
@@ -1957,7 +1969,7 @@
       <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1971,7 +1983,7 @@
       <c r="C32" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1985,7 +1997,7 @@
       <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1999,7 +2011,7 @@
       <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2013,7 +2025,7 @@
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2027,7 +2039,7 @@
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2041,7 +2053,7 @@
       <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2055,7 +2067,7 @@
       <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2069,7 +2081,7 @@
       <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2083,7 +2095,7 @@
       <c r="C40" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2097,7 +2109,7 @@
       <c r="C41" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2111,7 +2123,7 @@
       <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2125,7 +2137,7 @@
       <c r="C43" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2139,7 +2151,7 @@
       <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2153,7 +2165,7 @@
       <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2167,7 +2179,7 @@
       <c r="C46" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2181,7 +2193,7 @@
       <c r="C47" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2199,10 +2211,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
@@ -2214,10 +2226,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2225,28 +2237,28 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="7"/>
     </row>
@@ -2259,65 +2271,65 @@
     </row>
     <row r="6" ht="119" customHeight="1" spans="1:3">
       <c r="A6" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="119" customHeight="1" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="51" customHeight="1" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="56" customHeight="1" spans="1:3">
       <c r="A10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
         <v>79</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" ht="117" customHeight="1" spans="1:3">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" ht="28.8" spans="1:3">
@@ -2325,76 +2337,76 @@
         <v>19</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="28.8" spans="1:3">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>83</v>
-      </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="28.8" spans="1:3">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="28.8" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="28.8" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" ht="28.8" spans="1:3">
@@ -2402,172 +2414,172 @@
         <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" ht="28.8" spans="1:3">
       <c r="A20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="28.8" spans="1:3">
       <c r="A21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:3">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="28.8" spans="1:3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" ht="28.8" spans="1:3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" ht="28.8" spans="1:3">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:3">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" ht="28.8" spans="1:3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" ht="28.8" spans="1:3">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="28.8" spans="1:3">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="28.8" spans="1:3">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" ht="28.8" spans="1:3">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="105" customHeight="1" spans="1:2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" spans="2:2">
@@ -2575,26 +2587,26 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" customFormat="1" ht="28.8" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2602,102 +2614,113 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="115.2" spans="1:3">
-      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="C39" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" ht="43.2" spans="1:3">
-      <c r="A40" s="8" t="s">
+    </row>
+    <row r="40" s="1" customFormat="1" ht="115.2" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+    <row r="41" ht="43.2" spans="1:3">
+      <c r="A41" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B41" t="s">
-        <v>107</v>
+      <c r="B41" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" ht="15" customHeight="1" spans="1:3">
-      <c r="A42" s="8" t="s">
         <v>118</v>
       </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" ht="35" customHeight="1" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" ht="15" customHeight="1" spans="1:3">
       <c r="A43" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" ht="35" customHeight="1" spans="1:3">
+      <c r="A44" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" ht="33" customHeight="1" spans="1:3">
-      <c r="A44" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="B44" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" ht="28.8" spans="1:3">
-      <c r="A45" t="s">
-        <v>122</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" ht="33" customHeight="1" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" ht="144" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" ht="28.8" spans="1:3">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="13"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" ht="144" spans="1:2">
+      <c r="A47" t="s">
+        <v>127</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="14"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
